--- a/DNA_v2/DNA_assay/DNA74/sample_layout.xlsx
+++ b/DNA_v2/DNA_assay/DNA74/sample_layout.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="204" yWindow="588" windowWidth="22716" windowHeight="8676" activeTab="5"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Initialize" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Samples" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="Digestion1" sheetId="3" r:id="rId6"/>
-    <sheet state="hidden" name="Digestion2" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Well layout1" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Well layout2" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Well layout3" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Well layout4" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="dropdown" sheetId="9" r:id="rId12"/>
+    <sheet name="Initialize" sheetId="1" r:id="rId1"/>
+    <sheet name="Samples" sheetId="2" r:id="rId2"/>
+    <sheet name="Digestion1" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Digestion2" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Well layout1" sheetId="5" r:id="rId5"/>
+    <sheet name="Well layout2" sheetId="6" r:id="rId6"/>
+    <sheet name="Well layout3" sheetId="7" r:id="rId7"/>
+    <sheet name="Well layout4" sheetId="8" r:id="rId8"/>
+    <sheet name="dropdown" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="L2">
+    <comment ref="L2" authorId="0">
       <text>
-        <t xml:space="preserve">@vanessa@vitrolabsinc.com assay volume 20 uL for the samples right?
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>@vanessa@vitrolabsinc.com assay volume 20 uL for the samples right?
 _Assigned to vanessa@vitrolabsinc.com_
 	-Wayne Wu
 @vanessa@vitrolabsinc.com i forgot to update with the new template that we talked about. I edit the columns. Could you double check column I through L?
@@ -36,6 +46,7 @@
 	-Vanessa Aldaz
 column look fine @wayne@vitrolabsinc.com
 	-Vanessa Aldaz</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -192,52 +203,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -247,7 +256,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -269,104 +278,81 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -375,7 +361,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4791075" cy="2886075"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -387,29 +373,29 @@
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd fmla="val 16667" name="adj"/>
+            <a:gd name="adj" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -431,40 +417,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -654,52 +608,56 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="17.44"/>
-    <col customWidth="1" min="4" max="4" width="14.89"/>
-    <col customWidth="1" min="5" max="5" width="23.44"/>
-    <col customWidth="1" min="6" max="6" width="13.22"/>
-    <col customWidth="1" min="7" max="7" width="15.89"/>
-    <col customWidth="1" min="8" max="8" width="14.67"/>
-    <col customWidth="1" min="9" max="9" width="19.89"/>
-    <col customWidth="1" min="10" max="10" width="12.67"/>
-    <col customWidth="1" min="11" max="11" width="15.78"/>
-    <col customWidth="1" min="12" max="12" width="12.22"/>
-    <col customWidth="1" min="13" max="13" width="15.78"/>
-    <col customWidth="1" min="14" max="14" width="11.56"/>
-    <col customWidth="1" min="15" max="15" width="15.78"/>
-    <col customWidth="1" min="16" max="16" width="19.22"/>
-    <col customWidth="1" min="17" max="17" width="16.78"/>
-    <col customWidth="1" min="18" max="19" width="20.0"/>
+    <col min="1" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" customWidth="1"/>
+    <col min="9" max="9" width="19.8984375" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" customWidth="1"/>
+    <col min="11" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" customWidth="1"/>
+    <col min="13" max="13" width="15.796875" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="15.796875" customWidth="1"/>
+    <col min="16" max="16" width="19.19921875" customWidth="1"/>
+    <col min="17" max="17" width="16.796875" customWidth="1"/>
+    <col min="18" max="19" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,9 +716,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B2="""","""", REGEXEXTRACT(B2,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B2))"),"DNA74-1")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B2="""","""", REGEXEXTRACT(B2,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B2))"),"DNA74-1")</f>
         <v>DNA74-1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -776,46 +734,46 @@
         <v>22</v>
       </c>
       <c r="F2" s="13">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="I2" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="K2" s="14">
-        <f t="shared" ref="K2:K92" si="1">if(ISERR(sum(I2:J2)/I2),"",sum(I2:J2)/I2)</f>
+        <f t="shared" ref="K2:K92" si="0">IF(ISERR(SUM(I2:J2)/I2),"",SUM(I2:J2)/I2)</f>
         <v>40</v>
       </c>
       <c r="L2" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="9" t="str">
-        <f t="shared" ref="Q2:Q92" si="2">if(A2 = "","", A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;","&amp;N2&amp;","&amp;O2&amp;","&amp;P2&amp;"")</f>
+        <f t="shared" ref="Q2:Q92" ca="1" si="1">IF(A2 = "","", A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;","&amp;N2&amp;","&amp;O2&amp;","&amp;P2&amp;"")</f>
         <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="R2" s="15" t="str">
-        <f t="shared" ref="R2:R92" si="3">IF(D2="sample",A2&amp;CHAR(10)&amp;C2&amp;CHAR(10)&amp;TEXT(H2,"mm-dd-yyyy"),"")</f>
+        <f t="shared" ref="R2:R92" ca="1" si="2">IF(D2="sample",A2&amp;CHAR(10)&amp;C2&amp;CHAR(10)&amp;TEXT(H2,"mm-dd-yyyy"),"")</f>
         <v>DNA74-1
 B6-1
 05-14-1901</v>
       </c>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B3="""","""", REGEXEXTRACT(B3,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B3))"),"DNA74-2")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B3="""","""", REGEXEXTRACT(B3,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B3))"),"DNA74-2")</f>
         <v>DNA74-2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -831,46 +789,46 @@
         <v>24</v>
       </c>
       <c r="F3" s="17">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="I3" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="4">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="L3" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="R3" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DNA74-2
 C6-4
 05-14-1901</v>
       </c>
       <c r="S3" s="15"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B4="""","""", REGEXEXTRACT(B4,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B4))"),"DNA74-3")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B4="""","""", REGEXEXTRACT(B4,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B4))"),"DNA74-3")</f>
         <v>DNA74-3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -886,46 +844,46 @@
         <v>26</v>
       </c>
       <c r="F4" s="17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="I4" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L4" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="R4" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DNA74-3
 B5-4
 05-14-1901</v>
       </c>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B5="""","""", REGEXEXTRACT(B5,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B5))"),"DNA74-4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B5="""","""", REGEXEXTRACT(B5,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B5))"),"DNA74-4")</f>
         <v>DNA74-4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -941,46 +899,46 @@
         <v>22</v>
       </c>
       <c r="F5" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="4">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="I5" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-4,DNA74-20240126,B6-4,sample,EXP59A-B6,4,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DNA74-4
 B6-4
 05-14-1901</v>
       </c>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B6="""","""", REGEXEXTRACT(B6,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B6))"),"DNA74-5")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B6="""","""", REGEXEXTRACT(B6,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B6))"),"DNA74-5")</f>
         <v>DNA74-5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -996,38 +954,38 @@
         <v>28</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="4"/>
       <c r="I6" s="18"/>
       <c r="J6" s="4"/>
       <c r="K6" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L6" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M6" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-5,DNA74-20240126,DNA_40 standard,standard,DNA_40 standard,1,,,,,,20,40,,,</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B7="""","""", REGEXEXTRACT(B7,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B7))"),"DNA74-6")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B7="""","""", REGEXEXTRACT(B7,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B7))"),"DNA74-6")</f>
         <v>DNA74-6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1043,38 +1001,38 @@
         <v>30</v>
       </c>
       <c r="F7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
       <c r="J7" s="4"/>
       <c r="K7" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M7" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-6,DNA74-20240126,DNA_30 standard,standard,DNA_30 standard,1,,,,,,20,30,,,</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B8="""","""", REGEXEXTRACT(B8,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B8))"),"DNA74-7")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B8="""","""", REGEXEXTRACT(B8,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B8))"),"DNA74-7")</f>
         <v>DNA74-7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1090,38 +1048,38 @@
         <v>31</v>
       </c>
       <c r="F8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="4"/>
       <c r="I8" s="18"/>
       <c r="J8" s="4"/>
       <c r="K8" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L8" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M8" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-7,DNA74-20240126,DNA_20 standard,standard,DNA_20 standard,1,,,,,,20,20,,,</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S8" s="15"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B9="""","""", REGEXEXTRACT(B9,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B9))"),"DNA74-8")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B9="""","""", REGEXEXTRACT(B9,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B9))"),"DNA74-8")</f>
         <v>DNA74-8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1137,38 +1095,38 @@
         <v>32</v>
       </c>
       <c r="F9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="4"/>
       <c r="I9" s="18"/>
       <c r="J9" s="4"/>
       <c r="K9" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L9" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M9" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-8,DNA74-20240126,DNA_16 standard,standard,DNA_16 standard,1,,,,,,20,16,,,</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S9" s="15"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B10="""","""", REGEXEXTRACT(B10,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B10))"),"DNA74-9")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B10="""","""", REGEXEXTRACT(B10,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B10))"),"DNA74-9")</f>
         <v>DNA74-9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1184,38 +1142,38 @@
         <v>33</v>
       </c>
       <c r="F10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="4"/>
       <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L10" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M10" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-9,DNA74-20240126,DNA_12 standard,standard,DNA_12 standard,1,,,,,,20,12,,,</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S10" s="15"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B11="""","""", REGEXEXTRACT(B11,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B11))"),"DNA74-10")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B11="""","""", REGEXEXTRACT(B11,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B11))"),"DNA74-10")</f>
         <v>DNA74-10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1231,38 +1189,38 @@
         <v>34</v>
       </c>
       <c r="F11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="4"/>
       <c r="I11" s="18"/>
       <c r="J11" s="4"/>
       <c r="K11" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M11" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-10,DNA74-20240126,DNA_8 standard,standard,DNA_8 standard,1,,,,,,20,8,,,</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B12="""","""", REGEXEXTRACT(B12,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B12))"),"DNA74-11")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B12="""","""", REGEXEXTRACT(B12,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B12))"),"DNA74-11")</f>
         <v>DNA74-11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1278,38 +1236,38 @@
         <v>35</v>
       </c>
       <c r="F12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L12" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-11,DNA74-20240126,DNA_4 standard,standard,DNA_4 standard,1,,,,,,20,4,,,</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B13="""","""", REGEXEXTRACT(B13,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B13))"),"DNA74-12")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B13="""","""", REGEXEXTRACT(B13,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B13))"),"DNA74-12")</f>
         <v>DNA74-12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1325,38 +1283,38 @@
         <v>36</v>
       </c>
       <c r="F13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L13" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-12,DNA74-20240126,DNA_0 standard,standard,DNA_0 standard,1,,,,,,20,0,,,</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B14="""","""", REGEXEXTRACT(B14,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B14))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B14="""","""", REGEXEXTRACT(B14,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B14))"),"")</f>
         <v/>
       </c>
       <c r="B14" s="3"/>
@@ -1369,7 +1327,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L14" s="3"/>
@@ -1378,18 +1336,18 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B15="""","""", REGEXEXTRACT(B15,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B15))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B15="""","""", REGEXEXTRACT(B15,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B15))"),"")</f>
         <v/>
       </c>
       <c r="B15" s="3"/>
@@ -1402,7 +1360,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L15" s="3"/>
@@ -1411,18 +1369,18 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B16="""","""", REGEXEXTRACT(B16,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B16))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B16="""","""", REGEXEXTRACT(B16,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B16))"),"")</f>
         <v/>
       </c>
       <c r="B16" s="3"/>
@@ -1435,7 +1393,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L16" s="3"/>
@@ -1444,18 +1402,18 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B17="""","""", REGEXEXTRACT(B17,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B17))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B17="""","""", REGEXEXTRACT(B17,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B17))"),"")</f>
         <v/>
       </c>
       <c r="B17" s="3"/>
@@ -1468,7 +1426,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L17" s="3"/>
@@ -1477,18 +1435,18 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B18="""","""", REGEXEXTRACT(B18,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B18))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B18="""","""", REGEXEXTRACT(B18,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B18))"),"")</f>
         <v/>
       </c>
       <c r="B18" s="3"/>
@@ -1501,7 +1459,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L18" s="3"/>
@@ -1510,18 +1468,18 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B19="""","""", REGEXEXTRACT(B19,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B19))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B19="""","""", REGEXEXTRACT(B19,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B19))"),"")</f>
         <v/>
       </c>
       <c r="B19" s="3"/>
@@ -1534,7 +1492,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L19" s="3"/>
@@ -1543,18 +1501,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B20="""","""", REGEXEXTRACT(B20,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B20))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B20="""","""", REGEXEXTRACT(B20,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B20))"),"")</f>
         <v/>
       </c>
       <c r="B20" s="3"/>
@@ -1567,7 +1525,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L20" s="3"/>
@@ -1576,18 +1534,18 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B21="""","""", REGEXEXTRACT(B21,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B21))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B21="""","""", REGEXEXTRACT(B21,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B21))"),"")</f>
         <v/>
       </c>
       <c r="B21" s="3"/>
@@ -1600,7 +1558,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L21" s="3"/>
@@ -1609,18 +1567,18 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B22="""","""", REGEXEXTRACT(B22,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B22))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B22="""","""", REGEXEXTRACT(B22,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B22))"),"")</f>
         <v/>
       </c>
       <c r="B22" s="3"/>
@@ -1633,7 +1591,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L22" s="3"/>
@@ -1642,18 +1600,18 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B23="""","""", REGEXEXTRACT(B23,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B23))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B23="""","""", REGEXEXTRACT(B23,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B23))"),"")</f>
         <v/>
       </c>
       <c r="B23" s="3"/>
@@ -1666,7 +1624,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L23" s="3"/>
@@ -1675,18 +1633,18 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B24="""","""", REGEXEXTRACT(B24,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B24))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B24="""","""", REGEXEXTRACT(B24,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B24))"),"")</f>
         <v/>
       </c>
       <c r="B24" s="3"/>
@@ -1699,7 +1657,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L24" s="18"/>
@@ -1708,18 +1666,18 @@
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B25="""","""", REGEXEXTRACT(B25,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B25))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B25="""","""", REGEXEXTRACT(B25,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B25))"),"")</f>
         <v/>
       </c>
       <c r="B25" s="3"/>
@@ -1732,7 +1690,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L25" s="18"/>
@@ -1741,18 +1699,18 @@
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B26="""","""", REGEXEXTRACT(B26,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B26))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B26="""","""", REGEXEXTRACT(B26,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B26))"),"")</f>
         <v/>
       </c>
       <c r="B26" s="3"/>
@@ -1765,7 +1723,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L26" s="18"/>
@@ -1774,18 +1732,18 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B27="""","""", REGEXEXTRACT(B27,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B27))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B27="""","""", REGEXEXTRACT(B27,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B27))"),"")</f>
         <v/>
       </c>
       <c r="B27" s="3"/>
@@ -1798,7 +1756,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L27" s="18"/>
@@ -1807,18 +1765,18 @@
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B28="""","""", REGEXEXTRACT(B28,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B28))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B28="""","""", REGEXEXTRACT(B28,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B28))"),"")</f>
         <v/>
       </c>
       <c r="B28" s="3"/>
@@ -1831,7 +1789,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L28" s="18"/>
@@ -1840,18 +1798,18 @@
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B29="""","""", REGEXEXTRACT(B29,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B29))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B29="""","""", REGEXEXTRACT(B29,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B29))"),"")</f>
         <v/>
       </c>
       <c r="B29" s="3"/>
@@ -1864,7 +1822,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L29" s="18"/>
@@ -1873,18 +1831,18 @@
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B30="""","""", REGEXEXTRACT(B30,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B30))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B30="""","""", REGEXEXTRACT(B30,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B30))"),"")</f>
         <v/>
       </c>
       <c r="B30" s="3"/>
@@ -1897,7 +1855,7 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L30" s="18"/>
@@ -1906,18 +1864,18 @@
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B31="""","""", REGEXEXTRACT(B31,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B31))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B31="""","""", REGEXEXTRACT(B31,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B31))"),"")</f>
         <v/>
       </c>
       <c r="B31" s="3"/>
@@ -1930,7 +1888,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L31" s="18"/>
@@ -1939,18 +1897,18 @@
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B32="""","""", REGEXEXTRACT(B32,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B32))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B32="""","""", REGEXEXTRACT(B32,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B32))"),"")</f>
         <v/>
       </c>
       <c r="B32" s="3"/>
@@ -1963,7 +1921,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L32" s="18"/>
@@ -1972,18 +1930,18 @@
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B33="""","""", REGEXEXTRACT(B33,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B33))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B33="""","""", REGEXEXTRACT(B33,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B33))"),"")</f>
         <v/>
       </c>
       <c r="B33" s="3"/>
@@ -1996,7 +1954,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L33" s="18"/>
@@ -2005,18 +1963,18 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1">
       <c r="A34" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B34="""","""", REGEXEXTRACT(B34,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B34))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B34="""","""", REGEXEXTRACT(B34,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B34))"),"")</f>
         <v/>
       </c>
       <c r="B34" s="3"/>
@@ -2029,7 +1987,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L34" s="3"/>
@@ -2038,18 +1996,18 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B35="""","""", REGEXEXTRACT(B35,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B35))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B35="""","""", REGEXEXTRACT(B35,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B35))"),"")</f>
         <v/>
       </c>
       <c r="B35" s="3"/>
@@ -2062,7 +2020,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L35" s="3"/>
@@ -2071,18 +2029,18 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1">
       <c r="A36" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B36="""","""", REGEXEXTRACT(B36,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B36))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B36="""","""", REGEXEXTRACT(B36,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B36))"),"")</f>
         <v/>
       </c>
       <c r="B36" s="3"/>
@@ -2095,7 +2053,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L36" s="3"/>
@@ -2104,18 +2062,18 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B37="""","""", REGEXEXTRACT(B37,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B37))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B37="""","""", REGEXEXTRACT(B37,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B37))"),"")</f>
         <v/>
       </c>
       <c r="B37" s="3"/>
@@ -2128,7 +2086,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L37" s="3"/>
@@ -2137,18 +2095,18 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1">
       <c r="A38" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B38="""","""", REGEXEXTRACT(B38,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B38))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B38="""","""", REGEXEXTRACT(B38,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B38))"),"")</f>
         <v/>
       </c>
       <c r="B38" s="3"/>
@@ -2161,7 +2119,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L38" s="3"/>
@@ -2170,18 +2128,18 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S38" s="15"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1">
       <c r="A39" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B39="""","""", REGEXEXTRACT(B39,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B39))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B39="""","""", REGEXEXTRACT(B39,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B39))"),"")</f>
         <v/>
       </c>
       <c r="B39" s="3"/>
@@ -2194,7 +2152,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L39" s="3"/>
@@ -2203,18 +2161,18 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S39" s="15"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1">
       <c r="A40" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B40="""","""", REGEXEXTRACT(B40,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B40))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B40="""","""", REGEXEXTRACT(B40,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B40))"),"")</f>
         <v/>
       </c>
       <c r="B40" s="3"/>
@@ -2227,7 +2185,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L40" s="3"/>
@@ -2236,18 +2194,18 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S40" s="15"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1">
       <c r="A41" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B41="""","""", REGEXEXTRACT(B41,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B41))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B41="""","""", REGEXEXTRACT(B41,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B41))"),"")</f>
         <v/>
       </c>
       <c r="B41" s="3"/>
@@ -2260,7 +2218,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L41" s="3"/>
@@ -2269,18 +2227,18 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S41" s="15"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1">
       <c r="A42" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B42="""","""", REGEXEXTRACT(B42,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B42))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B42="""","""", REGEXEXTRACT(B42,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B42))"),"")</f>
         <v/>
       </c>
       <c r="B42" s="3"/>
@@ -2293,7 +2251,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L42" s="3"/>
@@ -2302,18 +2260,18 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S42" s="15"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1">
       <c r="A43" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B43="""","""", REGEXEXTRACT(B43,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B43))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B43="""","""", REGEXEXTRACT(B43,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B43))"),"")</f>
         <v/>
       </c>
       <c r="B43" s="18"/>
@@ -2326,7 +2284,7 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L43" s="18"/>
@@ -2335,18 +2293,18 @@
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
       <c r="Q43" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S43" s="15"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1">
       <c r="A44" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B44="""","""", REGEXEXTRACT(B44,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B44))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B44="""","""", REGEXEXTRACT(B44,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B44))"),"")</f>
         <v/>
       </c>
       <c r="B44" s="18"/>
@@ -2359,7 +2317,7 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L44" s="18"/>
@@ -2368,18 +2326,18 @@
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
       <c r="Q44" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R44" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S44" s="15"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1">
       <c r="A45" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B45="""","""", REGEXEXTRACT(B45,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B45))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B45="""","""", REGEXEXTRACT(B45,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B45))"),"")</f>
         <v/>
       </c>
       <c r="B45" s="18"/>
@@ -2392,7 +2350,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L45" s="18"/>
@@ -2401,18 +2359,18 @@
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
       <c r="Q45" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R45" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S45" s="15"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1">
       <c r="A46" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B46="""","""", REGEXEXTRACT(B46,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B46))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B46="""","""", REGEXEXTRACT(B46,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B46))"),"")</f>
         <v/>
       </c>
       <c r="B46" s="18"/>
@@ -2425,7 +2383,7 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L46" s="18"/>
@@ -2434,18 +2392,18 @@
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R46" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S46" s="15"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1">
       <c r="A47" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B47="""","""", REGEXEXTRACT(B47,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B47))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B47="""","""", REGEXEXTRACT(B47,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B47))"),"")</f>
         <v/>
       </c>
       <c r="B47" s="18"/>
@@ -2458,7 +2416,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L47" s="18"/>
@@ -2467,18 +2425,18 @@
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R47" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S47" s="15"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1">
       <c r="A48" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B48="""","""", REGEXEXTRACT(B48,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B48))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B48="""","""", REGEXEXTRACT(B48,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B48))"),"")</f>
         <v/>
       </c>
       <c r="B48" s="18"/>
@@ -2491,7 +2449,7 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L48" s="18"/>
@@ -2500,18 +2458,18 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R48" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S48" s="15"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:19" ht="15.75" customHeight="1">
       <c r="A49" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B49="""","""", REGEXEXTRACT(B49,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B49))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B49="""","""", REGEXEXTRACT(B49,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B49))"),"")</f>
         <v/>
       </c>
       <c r="B49" s="18"/>
@@ -2524,7 +2482,7 @@
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L49" s="18"/>
@@ -2533,18 +2491,18 @@
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R49" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S49" s="15"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:19" ht="15.75" customHeight="1">
       <c r="A50" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B50="""","""", REGEXEXTRACT(B50,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B50))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B50="""","""", REGEXEXTRACT(B50,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B50))"),"")</f>
         <v/>
       </c>
       <c r="B50" s="18"/>
@@ -2557,7 +2515,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
       <c r="K50" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L50" s="18"/>
@@ -2566,18 +2524,18 @@
       <c r="O50" s="18"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R50" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S50" s="15"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:19" ht="15.75" customHeight="1">
       <c r="A51" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B51="""","""", REGEXEXTRACT(B51,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B51))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B51="""","""", REGEXEXTRACT(B51,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B51))"),"")</f>
         <v/>
       </c>
       <c r="B51" s="18"/>
@@ -2590,7 +2548,7 @@
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
       <c r="K51" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L51" s="18"/>
@@ -2599,18 +2557,18 @@
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
       <c r="Q51" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R51" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S51" s="15"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:19" ht="15.75" customHeight="1">
       <c r="A52" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B52="""","""", REGEXEXTRACT(B52,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B52))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B52="""","""", REGEXEXTRACT(B52,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B52))"),"")</f>
         <v/>
       </c>
       <c r="B52" s="18"/>
@@ -2623,7 +2581,7 @@
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L52" s="18"/>
@@ -2632,18 +2590,18 @@
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R52" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S52" s="15"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:19" ht="15.75" customHeight="1">
       <c r="A53" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B53="""","""", REGEXEXTRACT(B53,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B53))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B53="""","""", REGEXEXTRACT(B53,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B53))"),"")</f>
         <v/>
       </c>
       <c r="B53" s="18"/>
@@ -2656,7 +2614,7 @@
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L53" s="18"/>
@@ -2665,18 +2623,18 @@
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R53" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S53" s="15"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:19" ht="15.75" customHeight="1">
       <c r="A54" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B54="""","""", REGEXEXTRACT(B54,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B54))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B54="""","""", REGEXEXTRACT(B54,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B54))"),"")</f>
         <v/>
       </c>
       <c r="B54" s="18"/>
@@ -2689,7 +2647,7 @@
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
       <c r="K54" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L54" s="18"/>
@@ -2698,18 +2656,18 @@
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R54" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S54" s="15"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:19" ht="15.75" customHeight="1">
       <c r="A55" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B55="""","""", REGEXEXTRACT(B55,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B55))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B55="""","""", REGEXEXTRACT(B55,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B55))"),"")</f>
         <v/>
       </c>
       <c r="B55" s="18"/>
@@ -2722,7 +2680,7 @@
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L55" s="18"/>
@@ -2731,18 +2689,18 @@
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
       <c r="Q55" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R55" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S55" s="15"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:19" ht="15.75" customHeight="1">
       <c r="A56" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B56="""","""", REGEXEXTRACT(B56,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B56))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B56="""","""", REGEXEXTRACT(B56,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B56))"),"")</f>
         <v/>
       </c>
       <c r="B56" s="18"/>
@@ -2755,7 +2713,7 @@
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L56" s="18"/>
@@ -2764,18 +2722,18 @@
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R56" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S56" s="15"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:19" ht="15.75" customHeight="1">
       <c r="A57" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B57="""","""", REGEXEXTRACT(B57,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B57))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B57="""","""", REGEXEXTRACT(B57,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B57))"),"")</f>
         <v/>
       </c>
       <c r="B57" s="18"/>
@@ -2788,7 +2746,7 @@
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L57" s="18"/>
@@ -2797,18 +2755,18 @@
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R57" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S57" s="15"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:19" ht="15.75" customHeight="1">
       <c r="A58" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B58="""","""", REGEXEXTRACT(B58,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B58))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B58="""","""", REGEXEXTRACT(B58,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B58))"),"")</f>
         <v/>
       </c>
       <c r="B58" s="18"/>
@@ -2821,7 +2779,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L58" s="18"/>
@@ -2830,18 +2788,18 @@
       <c r="O58" s="18"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R58" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S58" s="15"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:19" ht="15.75" customHeight="1">
       <c r="A59" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B59="""","""", REGEXEXTRACT(B59,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B59))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B59="""","""", REGEXEXTRACT(B59,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B59))"),"")</f>
         <v/>
       </c>
       <c r="B59" s="18"/>
@@ -2854,7 +2812,7 @@
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
       <c r="K59" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L59" s="18"/>
@@ -2863,18 +2821,18 @@
       <c r="O59" s="18"/>
       <c r="P59" s="18"/>
       <c r="Q59" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R59" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S59" s="15"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:19" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B60="""","""", REGEXEXTRACT(B60,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B60))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B60="""","""", REGEXEXTRACT(B60,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B60))"),"")</f>
         <v/>
       </c>
       <c r="B60" s="18"/>
@@ -2887,7 +2845,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
       <c r="K60" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L60" s="18"/>
@@ -2896,18 +2854,18 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
       <c r="Q60" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R60" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S60" s="15"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:19" ht="15.75" customHeight="1">
       <c r="A61" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B61="""","""", REGEXEXTRACT(B61,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B61))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B61="""","""", REGEXEXTRACT(B61,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B61))"),"")</f>
         <v/>
       </c>
       <c r="B61" s="18"/>
@@ -2920,7 +2878,7 @@
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
       <c r="K61" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L61" s="18"/>
@@ -2929,18 +2887,18 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
       <c r="Q61" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R61" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S61" s="15"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:19" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B62="""","""", REGEXEXTRACT(B62,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B62))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B62="""","""", REGEXEXTRACT(B62,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B62))"),"")</f>
         <v/>
       </c>
       <c r="B62" s="18"/>
@@ -2953,7 +2911,7 @@
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L62" s="18"/>
@@ -2962,18 +2920,18 @@
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
       <c r="Q62" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R62" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S62" s="15"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:19" ht="15.75" customHeight="1">
       <c r="A63" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B63="""","""", REGEXEXTRACT(B63,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B63))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B63="""","""", REGEXEXTRACT(B63,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B63))"),"")</f>
         <v/>
       </c>
       <c r="B63" s="18"/>
@@ -2986,7 +2944,7 @@
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L63" s="18"/>
@@ -2995,18 +2953,18 @@
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
       <c r="Q63" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R63" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S63" s="15"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:19" ht="15.75" customHeight="1">
       <c r="A64" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B64="""","""", REGEXEXTRACT(B64,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B64))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B64="""","""", REGEXEXTRACT(B64,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B64))"),"")</f>
         <v/>
       </c>
       <c r="B64" s="18"/>
@@ -3019,7 +2977,7 @@
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
       <c r="K64" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L64" s="18"/>
@@ -3028,18 +2986,18 @@
       <c r="O64" s="18"/>
       <c r="P64" s="18"/>
       <c r="Q64" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R64" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S64" s="15"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1">
       <c r="A65" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B65="""","""", REGEXEXTRACT(B65,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B65))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B65="""","""", REGEXEXTRACT(B65,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B65))"),"")</f>
         <v/>
       </c>
       <c r="B65" s="18"/>
@@ -3052,7 +3010,7 @@
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
       <c r="K65" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L65" s="18"/>
@@ -3061,18 +3019,18 @@
       <c r="O65" s="18"/>
       <c r="P65" s="18"/>
       <c r="Q65" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R65" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S65" s="15"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:19" ht="15.75" customHeight="1">
       <c r="A66" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B66="""","""", REGEXEXTRACT(B66,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B66))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B66="""","""", REGEXEXTRACT(B66,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B66))"),"")</f>
         <v/>
       </c>
       <c r="B66" s="18"/>
@@ -3085,7 +3043,7 @@
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
       <c r="K66" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L66" s="18"/>
@@ -3094,18 +3052,18 @@
       <c r="O66" s="18"/>
       <c r="P66" s="18"/>
       <c r="Q66" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R66" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S66" s="15"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:19" ht="15.75" customHeight="1">
       <c r="A67" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B67="""","""", REGEXEXTRACT(B67,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B67))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B67="""","""", REGEXEXTRACT(B67,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B67))"),"")</f>
         <v/>
       </c>
       <c r="B67" s="18"/>
@@ -3118,7 +3076,7 @@
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L67" s="18"/>
@@ -3127,18 +3085,18 @@
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
       <c r="Q67" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R67" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S67" s="15"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:19" ht="15.75" customHeight="1">
       <c r="A68" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B68="""","""", REGEXEXTRACT(B68,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B68))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B68="""","""", REGEXEXTRACT(B68,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B68))"),"")</f>
         <v/>
       </c>
       <c r="B68" s="18"/>
@@ -3151,7 +3109,7 @@
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
       <c r="K68" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L68" s="18"/>
@@ -3160,18 +3118,18 @@
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R68" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S68" s="15"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:19" ht="15.75" customHeight="1">
       <c r="A69" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B69="""","""", REGEXEXTRACT(B69,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B69))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B69="""","""", REGEXEXTRACT(B69,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B69))"),"")</f>
         <v/>
       </c>
       <c r="B69" s="18"/>
@@ -3184,7 +3142,7 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L69" s="18"/>
@@ -3193,18 +3151,18 @@
       <c r="O69" s="18"/>
       <c r="P69" s="18"/>
       <c r="Q69" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R69" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S69" s="15"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:19" ht="15.75" customHeight="1">
       <c r="A70" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B70="""","""", REGEXEXTRACT(B70,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B70))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B70="""","""", REGEXEXTRACT(B70,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B70))"),"")</f>
         <v/>
       </c>
       <c r="B70" s="18"/>
@@ -3217,7 +3175,7 @@
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L70" s="18"/>
@@ -3226,18 +3184,18 @@
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
       <c r="Q70" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R70" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S70" s="15"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:19" ht="15.75" customHeight="1">
       <c r="A71" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B71="""","""", REGEXEXTRACT(B71,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B71))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B71="""","""", REGEXEXTRACT(B71,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B71))"),"")</f>
         <v/>
       </c>
       <c r="B71" s="18"/>
@@ -3250,7 +3208,7 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
       <c r="K71" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L71" s="18"/>
@@ -3259,18 +3217,18 @@
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
       <c r="Q71" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R71" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S71" s="15"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:19" ht="15.75" customHeight="1">
       <c r="A72" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B72="""","""", REGEXEXTRACT(B72,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B72))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B72="""","""", REGEXEXTRACT(B72,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B72))"),"")</f>
         <v/>
       </c>
       <c r="B72" s="18"/>
@@ -3283,7 +3241,7 @@
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
       <c r="K72" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L72" s="18"/>
@@ -3292,18 +3250,18 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R72" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S72" s="15"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:19" ht="15.75" customHeight="1">
       <c r="A73" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B73="""","""", REGEXEXTRACT(B73,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B73))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B73="""","""", REGEXEXTRACT(B73,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B73))"),"")</f>
         <v/>
       </c>
       <c r="B73" s="18"/>
@@ -3316,7 +3274,7 @@
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
       <c r="K73" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L73" s="18"/>
@@ -3325,18 +3283,18 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
       <c r="Q73" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R73" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S73" s="15"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:19" ht="15.75" customHeight="1">
       <c r="A74" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B74="""","""", REGEXEXTRACT(B74,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B74))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B74="""","""", REGEXEXTRACT(B74,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B74))"),"")</f>
         <v/>
       </c>
       <c r="B74" s="18"/>
@@ -3349,7 +3307,7 @@
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
       <c r="K74" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L74" s="18"/>
@@ -3358,18 +3316,18 @@
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
       <c r="Q74" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R74" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S74" s="15"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:19" ht="15.75" customHeight="1">
       <c r="A75" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B75="""","""", REGEXEXTRACT(B75,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B75))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B75="""","""", REGEXEXTRACT(B75,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B75))"),"")</f>
         <v/>
       </c>
       <c r="B75" s="18"/>
@@ -3382,7 +3340,7 @@
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
       <c r="K75" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L75" s="18"/>
@@ -3391,18 +3349,18 @@
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
       <c r="Q75" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R75" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S75" s="15"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:19" ht="15.75" customHeight="1">
       <c r="A76" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B76="""","""", REGEXEXTRACT(B76,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B76))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B76="""","""", REGEXEXTRACT(B76,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B76))"),"")</f>
         <v/>
       </c>
       <c r="B76" s="18"/>
@@ -3415,7 +3373,7 @@
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L76" s="18"/>
@@ -3424,18 +3382,18 @@
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
       <c r="Q76" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R76" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S76" s="15"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:19" ht="15.75" customHeight="1">
       <c r="A77" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B77="""","""", REGEXEXTRACT(B77,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B77))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B77="""","""", REGEXEXTRACT(B77,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B77))"),"")</f>
         <v/>
       </c>
       <c r="B77" s="18"/>
@@ -3448,7 +3406,7 @@
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
       <c r="K77" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L77" s="18"/>
@@ -3457,18 +3415,18 @@
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
       <c r="Q77" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R77" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S77" s="15"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:19" ht="15.75" customHeight="1">
       <c r="A78" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B78="""","""", REGEXEXTRACT(B78,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B78))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B78="""","""", REGEXEXTRACT(B78,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B78))"),"")</f>
         <v/>
       </c>
       <c r="B78" s="18"/>
@@ -3481,7 +3439,7 @@
       <c r="I78" s="18"/>
       <c r="J78" s="18"/>
       <c r="K78" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L78" s="18"/>
@@ -3490,18 +3448,18 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
       <c r="Q78" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R78" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S78" s="15"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:19" ht="15.75" customHeight="1">
       <c r="A79" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B79="""","""", REGEXEXTRACT(B79,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B79))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B79="""","""", REGEXEXTRACT(B79,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B79))"),"")</f>
         <v/>
       </c>
       <c r="B79" s="18"/>
@@ -3514,7 +3472,7 @@
       <c r="I79" s="18"/>
       <c r="J79" s="18"/>
       <c r="K79" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L79" s="18"/>
@@ -3523,18 +3481,18 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
       <c r="Q79" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R79" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S79" s="15"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:19" ht="15.75" customHeight="1">
       <c r="A80" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B80="""","""", REGEXEXTRACT(B80,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B80))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B80="""","""", REGEXEXTRACT(B80,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B80))"),"")</f>
         <v/>
       </c>
       <c r="B80" s="18"/>
@@ -3547,7 +3505,7 @@
       <c r="I80" s="18"/>
       <c r="J80" s="18"/>
       <c r="K80" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L80" s="18"/>
@@ -3556,18 +3514,18 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
       <c r="Q80" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R80" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S80" s="15"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:19" ht="15.75" customHeight="1">
       <c r="A81" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B81="""","""", REGEXEXTRACT(B81,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B81))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B81="""","""", REGEXEXTRACT(B81,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B81))"),"")</f>
         <v/>
       </c>
       <c r="B81" s="18"/>
@@ -3580,7 +3538,7 @@
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
       <c r="K81" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L81" s="18"/>
@@ -3589,18 +3547,18 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R81" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S81" s="15"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1">
       <c r="A82" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B82="""","""", REGEXEXTRACT(B82,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B82))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B82="""","""", REGEXEXTRACT(B82,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B82))"),"")</f>
         <v/>
       </c>
       <c r="B82" s="18"/>
@@ -3613,7 +3571,7 @@
       <c r="I82" s="18"/>
       <c r="J82" s="18"/>
       <c r="K82" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L82" s="18"/>
@@ -3622,18 +3580,18 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R82" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S82" s="15"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:19" ht="15.75" customHeight="1">
       <c r="A83" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B83="""","""", REGEXEXTRACT(B83,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B83))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B83="""","""", REGEXEXTRACT(B83,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B83))"),"")</f>
         <v/>
       </c>
       <c r="B83" s="18"/>
@@ -3646,7 +3604,7 @@
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
       <c r="K83" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L83" s="18"/>
@@ -3655,18 +3613,18 @@
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R83" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S83" s="15"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:19" ht="15.75" customHeight="1">
       <c r="A84" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B84="""","""", REGEXEXTRACT(B84,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B84))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B84="""","""", REGEXEXTRACT(B84,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B84))"),"")</f>
         <v/>
       </c>
       <c r="B84" s="18"/>
@@ -3679,7 +3637,7 @@
       <c r="I84" s="18"/>
       <c r="J84" s="18"/>
       <c r="K84" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L84" s="18"/>
@@ -3688,18 +3646,18 @@
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
       <c r="Q84" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R84" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S84" s="15"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:19" ht="15.75" customHeight="1">
       <c r="A85" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B85="""","""", REGEXEXTRACT(B85,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B85))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B85="""","""", REGEXEXTRACT(B85,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B85))"),"")</f>
         <v/>
       </c>
       <c r="B85" s="18"/>
@@ -3712,7 +3670,7 @@
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
       <c r="K85" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L85" s="18"/>
@@ -3721,18 +3679,18 @@
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
       <c r="Q85" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R85" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S85" s="15"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:19" ht="15.75" customHeight="1">
       <c r="A86" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B86="""","""", REGEXEXTRACT(B86,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B86))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B86="""","""", REGEXEXTRACT(B86,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B86))"),"")</f>
         <v/>
       </c>
       <c r="B86" s="18"/>
@@ -3745,7 +3703,7 @@
       <c r="I86" s="18"/>
       <c r="J86" s="18"/>
       <c r="K86" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L86" s="18"/>
@@ -3754,18 +3712,18 @@
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R86" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S86" s="15"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:19" ht="15.75" customHeight="1">
       <c r="A87" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B87="""","""", REGEXEXTRACT(B87,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B87))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B87="""","""", REGEXEXTRACT(B87,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B87))"),"")</f>
         <v/>
       </c>
       <c r="B87" s="18"/>
@@ -3778,7 +3736,7 @@
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="K87" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L87" s="18"/>
@@ -3787,18 +3745,18 @@
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
       <c r="Q87" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R87" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S87" s="15"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:19" ht="15.75" customHeight="1">
       <c r="A88" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B88="""","""", REGEXEXTRACT(B88,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B88))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B88="""","""", REGEXEXTRACT(B88,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B88))"),"")</f>
         <v/>
       </c>
       <c r="B88" s="18"/>
@@ -3811,7 +3769,7 @@
       <c r="I88" s="18"/>
       <c r="J88" s="18"/>
       <c r="K88" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L88" s="18"/>
@@ -3820,18 +3778,18 @@
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
       <c r="Q88" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R88" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S88" s="15"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:19" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B89="""","""", REGEXEXTRACT(B89,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B89))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B89="""","""", REGEXEXTRACT(B89,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B89))"),"")</f>
         <v/>
       </c>
       <c r="B89" s="18"/>
@@ -3844,7 +3802,7 @@
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
       <c r="K89" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L89" s="18"/>
@@ -3853,18 +3811,18 @@
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
       <c r="Q89" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R89" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S89" s="15"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:19" ht="15.75" customHeight="1">
       <c r="A90" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B90="""","""", REGEXEXTRACT(B90,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B90))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B90="""","""", REGEXEXTRACT(B90,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B90))"),"")</f>
         <v/>
       </c>
       <c r="B90" s="18"/>
@@ -3877,7 +3835,7 @@
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
       <c r="K90" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L90" s="18"/>
@@ -3886,18 +3844,18 @@
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
       <c r="Q90" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R90" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S90" s="15"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:19" ht="15.75" customHeight="1">
       <c r="A91" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B91="""","""", REGEXEXTRACT(B91,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B91))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B91="""","""", REGEXEXTRACT(B91,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B91))"),"")</f>
         <v/>
       </c>
       <c r="B91" s="18"/>
@@ -3910,7 +3868,7 @@
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
       <c r="K91" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L91" s="18"/>
@@ -3919,18 +3877,18 @@
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
       <c r="Q91" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R91" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S91" s="15"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:19" ht="15.75" customHeight="1">
       <c r="A92" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("if(B92="""","""", REGEXEXTRACT(B92,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B92))"),"")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("if(B92="""","""", REGEXEXTRACT(B92,""(.*)-.*"") &amp; ""-"" &amp; COUNTA($B$2:B92))"),"")</f>
         <v/>
       </c>
       <c r="B92" s="18"/>
@@ -3943,7 +3901,7 @@
       <c r="I92" s="18"/>
       <c r="J92" s="18"/>
       <c r="K92" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L92" s="18"/>
@@ -3952,17 +3910,17 @@
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R92" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S92" s="15"/>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D92">
       <formula1>"sample,standard,blank_control,control"</formula1>
     </dataValidation>
@@ -3973,67 +3931,63 @@
       <formula1>dropdown!$A$2:$A$1000</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="20.78"/>
+    <col min="1" max="13" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="22">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="22">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="22">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="22">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="22">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="22">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I1" s="22">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J1" s="22">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="22">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L1" s="22">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="M1" s="22">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -4050,351 +4004,347 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="str">
-        <f>Samples!Q2</f>
+        <f ca="1">Samples!Q2</f>
         <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f>Samples!Q12</f>
+        <f ca="1">Samples!Q12</f>
         <v>DNA74-11,DNA74-20240126,DNA_4 standard,standard,DNA_4 standard,1,,,,,,20,4,,,</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>Samples!Q18</f>
+        <f ca="1">Samples!Q18</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>Samples!Q24</f>
+        <f ca="1">Samples!Q24</f>
         <v/>
       </c>
       <c r="G3" s="22" t="str">
-        <f>Samples!Q30</f>
+        <f ca="1">Samples!Q30</f>
         <v/>
       </c>
       <c r="H3" s="22" t="str">
-        <f>Samples!Q36</f>
+        <f ca="1">Samples!Q36</f>
         <v/>
       </c>
       <c r="I3" s="22" t="str">
-        <f>Samples!Q42</f>
+        <f ca="1">Samples!Q42</f>
         <v/>
       </c>
       <c r="J3" s="22" t="str">
-        <f>Samples!Q47</f>
+        <f ca="1">Samples!Q47</f>
         <v/>
       </c>
       <c r="K3" s="22" t="str">
-        <f>Samples!Q53</f>
+        <f ca="1">Samples!Q53</f>
         <v/>
       </c>
       <c r="L3" s="22" t="str">
-        <f>Samples!Q59</f>
+        <f ca="1">Samples!Q59</f>
         <v/>
       </c>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="str">
-        <f>Samples!Q2</f>
+        <f ca="1">Samples!Q2</f>
         <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="D4" s="22" t="str">
-        <f>Samples!Q13</f>
+        <f ca="1">Samples!Q13</f>
         <v>DNA74-12,DNA74-20240126,DNA_0 standard,standard,DNA_0 standard,1,,,,,,20,0,,,</v>
       </c>
       <c r="E4" s="22" t="str">
-        <f>Samples!Q19</f>
+        <f ca="1">Samples!Q19</f>
         <v/>
       </c>
       <c r="F4" s="22" t="str">
-        <f>Samples!Q25</f>
+        <f ca="1">Samples!Q25</f>
         <v/>
       </c>
       <c r="G4" s="22" t="str">
-        <f>Samples!Q31</f>
+        <f ca="1">Samples!Q31</f>
         <v/>
       </c>
       <c r="H4" s="22" t="str">
-        <f>Samples!Q37</f>
+        <f ca="1">Samples!Q37</f>
         <v/>
       </c>
       <c r="I4" s="22" t="str">
-        <f>Samples!Q43</f>
+        <f ca="1">Samples!Q43</f>
         <v/>
       </c>
       <c r="J4" s="22" t="str">
-        <f>Samples!Q48</f>
+        <f ca="1">Samples!Q48</f>
         <v/>
       </c>
       <c r="K4" s="22" t="str">
-        <f>Samples!Q54</f>
+        <f ca="1">Samples!Q54</f>
         <v/>
       </c>
       <c r="L4" s="22" t="str">
-        <f>Samples!Q60</f>
+        <f ca="1">Samples!Q60</f>
         <v/>
       </c>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="str">
-        <f>Samples!Q3</f>
+        <f ca="1">Samples!Q3</f>
         <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="D5" s="22" t="str">
-        <f>Samples!Q14</f>
+        <f ca="1">Samples!Q14</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>Samples!Q20</f>
+        <f ca="1">Samples!Q20</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>Samples!Q26</f>
+        <f ca="1">Samples!Q26</f>
         <v/>
       </c>
       <c r="G5" s="22" t="str">
-        <f>Samples!Q32</f>
+        <f ca="1">Samples!Q32</f>
         <v/>
       </c>
       <c r="H5" s="22" t="str">
-        <f>Samples!Q38</f>
+        <f ca="1">Samples!Q38</f>
         <v/>
       </c>
       <c r="I5" s="22" t="str">
-        <f>Samples!Q44</f>
+        <f ca="1">Samples!Q44</f>
         <v/>
       </c>
       <c r="J5" s="22" t="str">
-        <f>Samples!Q49</f>
+        <f ca="1">Samples!Q49</f>
         <v/>
       </c>
       <c r="K5" s="22" t="str">
-        <f>Samples!Q55</f>
+        <f ca="1">Samples!Q55</f>
         <v/>
       </c>
       <c r="L5" s="22" t="str">
-        <f>Samples!Q61</f>
+        <f ca="1">Samples!Q61</f>
         <v/>
       </c>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="str">
-        <f>Samples!Q3</f>
+        <f ca="1">Samples!Q3</f>
         <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="D6" s="22" t="str">
-        <f>Samples!Q15</f>
+        <f ca="1">Samples!Q15</f>
         <v/>
       </c>
       <c r="E6" s="22" t="str">
-        <f>Samples!Q21</f>
+        <f ca="1">Samples!Q21</f>
         <v/>
       </c>
       <c r="F6" s="22" t="str">
-        <f>Samples!Q27</f>
+        <f ca="1">Samples!Q27</f>
         <v/>
       </c>
       <c r="G6" s="22" t="str">
-        <f>Samples!Q33</f>
+        <f ca="1">Samples!Q33</f>
         <v/>
       </c>
       <c r="H6" s="22" t="str">
-        <f>Samples!Q39</f>
+        <f ca="1">Samples!Q39</f>
         <v/>
       </c>
       <c r="I6" s="22" t="str">
-        <f>Samples!Q45</f>
+        <f ca="1">Samples!Q45</f>
         <v/>
       </c>
       <c r="J6" s="22" t="str">
-        <f>Samples!Q50</f>
+        <f ca="1">Samples!Q50</f>
         <v/>
       </c>
       <c r="K6" s="22" t="str">
-        <f>Samples!Q56</f>
+        <f ca="1">Samples!Q56</f>
         <v/>
       </c>
       <c r="L6" s="22" t="str">
-        <f>Samples!Q62</f>
+        <f ca="1">Samples!Q62</f>
         <v/>
       </c>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="str">
-        <f>Samples!Q4</f>
+        <f ca="1">Samples!Q4</f>
         <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="D7" s="22" t="str">
-        <f>Samples!Q16</f>
+        <f ca="1">Samples!Q16</f>
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>Samples!Q22</f>
+        <f ca="1">Samples!Q22</f>
         <v/>
       </c>
       <c r="F7" s="22" t="str">
-        <f>Samples!Q28</f>
+        <f ca="1">Samples!Q28</f>
         <v/>
       </c>
       <c r="G7" s="22" t="str">
-        <f>Samples!Q34</f>
+        <f ca="1">Samples!Q34</f>
         <v/>
       </c>
       <c r="H7" s="22" t="str">
-        <f>Samples!Q40</f>
+        <f ca="1">Samples!Q40</f>
         <v/>
       </c>
       <c r="I7" s="22" t="str">
-        <f>Samples!Q46</f>
+        <f ca="1">Samples!Q46</f>
         <v/>
       </c>
       <c r="J7" s="22" t="str">
-        <f>Samples!Q51</f>
+        <f ca="1">Samples!Q51</f>
         <v/>
       </c>
       <c r="K7" s="22" t="str">
-        <f>Samples!Q57</f>
+        <f ca="1">Samples!Q57</f>
         <v/>
       </c>
       <c r="L7" s="22" t="str">
-        <f>Samples!Q63</f>
+        <f ca="1">Samples!Q63</f>
         <v/>
       </c>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="str">
-        <f>Samples!Q4</f>
+        <f ca="1">Samples!Q4</f>
         <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>Samples!Q17</f>
+        <f ca="1">Samples!Q17</f>
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>Samples!Q23</f>
+        <f ca="1">Samples!Q23</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
-        <f>Samples!Q29</f>
+        <f ca="1">Samples!Q29</f>
         <v/>
       </c>
       <c r="G8" s="22" t="str">
-        <f>Samples!Q35</f>
+        <f ca="1">Samples!Q35</f>
         <v/>
       </c>
       <c r="H8" s="22" t="str">
-        <f>Samples!Q41</f>
+        <f ca="1">Samples!Q41</f>
         <v/>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22" t="str">
-        <f>Samples!Q52</f>
+        <f ca="1">Samples!Q52</f>
         <v/>
       </c>
       <c r="K8" s="22" t="str">
-        <f>Samples!Q58</f>
+        <f ca="1">Samples!Q58</f>
         <v/>
       </c>
       <c r="L8" s="22" t="str">
-        <f>Samples!Q64</f>
+        <f ca="1">Samples!Q64</f>
         <v/>
       </c>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="36.33"/>
-    <col customWidth="1" min="12" max="13" width="8.78"/>
+    <col min="1" max="11" width="36.296875" customWidth="1"/>
+    <col min="12" max="13" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="B1" s="23">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="23">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="23">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="23">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="23">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="23">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I1" s="23">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J1" s="23">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="23">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L1" s="23">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="M1" s="23">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -4411,29 +4361,29 @@
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="str">
-        <f>Samples!Q65</f>
+        <f ca="1">Samples!Q65</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>Samples!Q70</f>
+        <f ca="1">Samples!Q70</f>
         <v/>
       </c>
       <c r="E3" s="22" t="str">
-        <f>Samples!Q76</f>
+        <f ca="1">Samples!Q76</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>Samples!Q82</f>
+        <f ca="1">Samples!Q82</f>
         <v/>
       </c>
       <c r="G3" s="22" t="str">
-        <f>Samples!Q88</f>
+        <f ca="1">Samples!Q88</f>
         <v/>
       </c>
       <c r="H3" s="22"/>
@@ -4443,29 +4393,29 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="str">
-        <f>Samples!Q66</f>
+        <f ca="1">Samples!Q66</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>Samples!Q71</f>
+        <f ca="1">Samples!Q71</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>Samples!Q77</f>
+        <f ca="1">Samples!Q77</f>
         <v/>
       </c>
       <c r="F4" s="22" t="str">
-        <f>Samples!Q83</f>
+        <f ca="1">Samples!Q83</f>
         <v/>
       </c>
       <c r="G4" s="22" t="str">
-        <f>Samples!Q89</f>
+        <f ca="1">Samples!Q89</f>
         <v/>
       </c>
       <c r="H4" s="22"/>
@@ -4475,29 +4425,29 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="str">
-        <f>Samples!Q67</f>
+        <f ca="1">Samples!Q67</f>
         <v/>
       </c>
       <c r="D5" s="22" t="str">
-        <f>Samples!Q72</f>
+        <f ca="1">Samples!Q72</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>Samples!Q78</f>
+        <f ca="1">Samples!Q78</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>Samples!Q84</f>
+        <f ca="1">Samples!Q84</f>
         <v/>
       </c>
       <c r="G5" s="22" t="str">
-        <f>Samples!Q90</f>
+        <f ca="1">Samples!Q90</f>
         <v/>
       </c>
       <c r="H5" s="22"/>
@@ -4507,29 +4457,29 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="str">
-        <f>Samples!Q68</f>
+        <f ca="1">Samples!Q68</f>
         <v/>
       </c>
       <c r="D6" s="22" t="str">
-        <f>Samples!Q73</f>
+        <f ca="1">Samples!Q73</f>
         <v/>
       </c>
       <c r="E6" s="22" t="str">
-        <f>Samples!Q79</f>
+        <f ca="1">Samples!Q79</f>
         <v/>
       </c>
       <c r="F6" s="22" t="str">
-        <f>Samples!Q85</f>
+        <f ca="1">Samples!Q85</f>
         <v/>
       </c>
       <c r="G6" s="22" t="str">
-        <f>Samples!Q91</f>
+        <f ca="1">Samples!Q91</f>
         <v/>
       </c>
       <c r="H6" s="22"/>
@@ -4539,29 +4489,29 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="str">
-        <f>Samples!Q69</f>
+        <f ca="1">Samples!Q69</f>
         <v/>
       </c>
       <c r="D7" s="22" t="str">
-        <f>Samples!Q74</f>
+        <f ca="1">Samples!Q74</f>
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>Samples!Q80</f>
+        <f ca="1">Samples!Q80</f>
         <v/>
       </c>
       <c r="F7" s="22" t="str">
-        <f>Samples!Q86</f>
+        <f ca="1">Samples!Q86</f>
         <v/>
       </c>
       <c r="G7" s="22" t="str">
-        <f>Samples!Q92</f>
+        <f ca="1">Samples!Q92</f>
         <v/>
       </c>
       <c r="H7" s="22"/>
@@ -4571,22 +4521,22 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22" t="str">
-        <f>Samples!Q75</f>
+        <f ca="1">Samples!Q75</f>
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>Samples!Q81</f>
+        <f ca="1">Samples!Q81</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
-        <f>Samples!Q87</f>
+        <f ca="1">Samples!Q87</f>
         <v/>
       </c>
       <c r="G8" s="22"/>
@@ -4597,7 +4547,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>44</v>
       </c>
@@ -4614,7 +4564,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -4630,87 +4580,87 @@
       <c r="M10" s="22"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="10.78"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="6" width="28.3984375" customWidth="1"/>
+    <col min="7" max="13" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="24"/>
       <c r="B1" s="25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="25">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="25">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="25">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I1" s="25">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J1" s="25">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="25">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L1" s="25">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="M1" s="25">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="2" ht="54.0" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="62.4">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="26" t="str">
-        <f>Samples!Q6</f>
+        <f ca="1">Samples!Q6</f>
         <v>DNA74-5,DNA74-20240126,DNA_40 standard,standard,DNA_40 standard,1,,,,,,20,40,,,</v>
       </c>
       <c r="C2" s="27" t="str">
-        <f t="shared" ref="C2:C9" si="2">B2</f>
+        <f t="shared" ref="C2:C9" ca="1" si="0">B2</f>
         <v>DNA74-5,DNA74-20240126,DNA_40 standard,standard,DNA_40 standard,1,,,,,,20,40,,,</v>
       </c>
       <c r="D2" s="28" t="str">
-        <f>Samples!Q2</f>
+        <f ca="1">Samples!Q2</f>
         <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="E2" s="28" t="str">
-        <f t="shared" ref="E2:F2" si="1">D2</f>
+        <f t="shared" ref="E2:F2" ca="1" si="1">D2</f>
         <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="F2" s="28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="G2" s="28"/>
@@ -4721,28 +4671,28 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" ht="54.0" customHeight="1">
+    <row r="3" spans="1:13" ht="62.4">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>Samples!Q7</f>
+        <f ca="1">Samples!Q7</f>
         <v>DNA74-6,DNA74-20240126,DNA_30 standard,standard,DNA_30 standard,1,,,,,,20,30,,,</v>
       </c>
       <c r="C3" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>DNA74-6,DNA74-20240126,DNA_30 standard,standard,DNA_30 standard,1,,,,,,20,30,,,</v>
       </c>
       <c r="D3" s="28" t="str">
-        <f>Samples!Q3</f>
+        <f ca="1">Samples!Q3</f>
         <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="E3" s="28" t="str">
-        <f t="shared" ref="E3:F3" si="3">D3</f>
+        <f t="shared" ref="E3:F3" ca="1" si="2">D3</f>
         <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="F3" s="28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
       </c>
       <c r="G3" s="28"/>
@@ -4753,28 +4703,28 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" ht="54.0" customHeight="1">
+    <row r="4" spans="1:13" ht="62.4">
       <c r="A4" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="26" t="str">
-        <f>Samples!Q8</f>
+        <f ca="1">Samples!Q8</f>
         <v>DNA74-7,DNA74-20240126,DNA_20 standard,standard,DNA_20 standard,1,,,,,,20,20,,,</v>
       </c>
       <c r="C4" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>DNA74-7,DNA74-20240126,DNA_20 standard,standard,DNA_20 standard,1,,,,,,20,20,,,</v>
       </c>
       <c r="D4" s="28" t="str">
-        <f>Samples!Q4</f>
+        <f ca="1">Samples!Q4</f>
         <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="E4" s="28" t="str">
-        <f t="shared" ref="E4:F4" si="4">D4</f>
+        <f t="shared" ref="E4:F4" ca="1" si="3">D4</f>
         <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="F4" s="28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="G4" s="28"/>
@@ -4785,28 +4735,28 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" ht="54.0" customHeight="1">
+    <row r="5" spans="1:13" ht="62.4">
       <c r="A5" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>Samples!Q9</f>
+        <f ca="1">Samples!Q9</f>
         <v>DNA74-8,DNA74-20240126,DNA_16 standard,standard,DNA_16 standard,1,,,,,,20,16,,,</v>
       </c>
       <c r="C5" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>DNA74-8,DNA74-20240126,DNA_16 standard,standard,DNA_16 standard,1,,,,,,20,16,,,</v>
       </c>
       <c r="D5" s="28" t="str">
-        <f>Samples!Q5</f>
+        <f ca="1">Samples!Q5</f>
         <v>DNA74-4,DNA74-20240126,B6-4,sample,EXP59A-B6,4,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="E5" s="28" t="str">
-        <f t="shared" ref="E5:F5" si="5">D5</f>
+        <f t="shared" ref="E5:F5" ca="1" si="4">D5</f>
         <v>DNA74-4,DNA74-20240126,B6-4,sample,EXP59A-B6,4,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="F5" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>DNA74-4,DNA74-20240126,B6-4,sample,EXP59A-B6,4,8,500,20,0,1,20,,,,</v>
       </c>
       <c r="G5" s="28"/>
@@ -4817,16 +4767,16 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" ht="54.0" customHeight="1">
+    <row r="6" spans="1:13" ht="62.4">
       <c r="A6" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="26" t="str">
-        <f>Samples!Q10</f>
+        <f ca="1">Samples!Q10</f>
         <v>DNA74-9,DNA74-20240126,DNA_12 standard,standard,DNA_12 standard,1,,,,,,20,12,,,</v>
       </c>
       <c r="C6" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>DNA74-9,DNA74-20240126,DNA_12 standard,standard,DNA_12 standard,1,,,,,,20,12,,,</v>
       </c>
       <c r="D6" s="28"/>
@@ -4840,16 +4790,16 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" ht="54.0" customHeight="1">
+    <row r="7" spans="1:13" ht="62.4">
       <c r="A7" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>Samples!Q11</f>
+        <f ca="1">Samples!Q11</f>
         <v>DNA74-10,DNA74-20240126,DNA_8 standard,standard,DNA_8 standard,1,,,,,,20,8,,,</v>
       </c>
       <c r="C7" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>DNA74-10,DNA74-20240126,DNA_8 standard,standard,DNA_8 standard,1,,,,,,20,8,,,</v>
       </c>
       <c r="D7" s="28"/>
@@ -4863,16 +4813,16 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" ht="54.0" customHeight="1">
+    <row r="8" spans="1:13" ht="62.4">
       <c r="A8" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="26" t="str">
-        <f>Samples!Q12</f>
+        <f ca="1">Samples!Q12</f>
         <v>DNA74-11,DNA74-20240126,DNA_4 standard,standard,DNA_4 standard,1,,,,,,20,4,,,</v>
       </c>
       <c r="C8" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>DNA74-11,DNA74-20240126,DNA_4 standard,standard,DNA_4 standard,1,,,,,,20,4,,,</v>
       </c>
       <c r="D8" s="28"/>
@@ -4886,16 +4836,16 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" ht="54.0" customHeight="1">
+    <row r="9" spans="1:13" ht="62.4">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>Samples!Q13</f>
+        <f ca="1">Samples!Q13</f>
         <v>DNA74-12,DNA74-20240126,DNA_0 standard,standard,DNA_0 standard,1,,,,,,20,0,,,</v>
       </c>
       <c r="C9" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>DNA74-12,DNA74-20240126,DNA_0 standard,standard,DNA_0 standard,1,,,,,,20,0,,,</v>
       </c>
       <c r="D9" s="28"/>
@@ -4910,66 +4860,343 @@
       <c r="M9" s="28"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="24.69921875" customWidth="1"/>
+    <col min="5" max="13" width="9.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25">
+        <v>6</v>
+      </c>
+      <c r="H1" s="25">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25">
+        <v>11</v>
+      </c>
+      <c r="M1" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="156">
+      <c r="A2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="str">
+        <f ca="1">Samples!Q6</f>
+        <v>DNA74-5,DNA74-20240126,DNA_40 standard,standard,DNA_40 standard,1,,,,,,20,40,,,</v>
+      </c>
+      <c r="C2" s="28" t="str">
+        <f t="shared" ref="C2:C9" ca="1" si="0">B2</f>
+        <v>DNA74-5,DNA74-20240126,DNA_40 standard,standard,DNA_40 standard,1,,,,,,20,40,,,</v>
+      </c>
+      <c r="D2" s="28" t="str">
+        <f ca="1">Samples!Q2</f>
+        <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
+      </c>
+      <c r="E2" s="28" t="str">
+        <f t="shared" ref="E2:F5" ca="1" si="1">D2</f>
+        <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DNA74-1,DNA74-20240126,B6-1,sample,EXP59A-B6,1,8,500,10,390,40,20,,,,</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="28" t="str">
+        <f ca="1">Samples!Q7</f>
+        <v>DNA74-6,DNA74-20240126,DNA_30 standard,standard,DNA_30 standard,1,,,,,,20,30,,,</v>
+      </c>
+      <c r="C3" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DNA74-6,DNA74-20240126,DNA_30 standard,standard,DNA_30 standard,1,,,,,,20,30,,,</v>
+      </c>
+      <c r="D3" s="28" t="str">
+        <f ca="1">Samples!Q3</f>
+        <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
+      </c>
+      <c r="E3" s="28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DNA74-2,DNA74-20240126,C6-4,sample,EXP59A-C6,1,8,500,10,390,40,20,,,,</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="28" t="str">
+        <f ca="1">Samples!Q8</f>
+        <v>DNA74-7,DNA74-20240126,DNA_20 standard,standard,DNA_20 standard,1,,,,,,20,20,,,</v>
+      </c>
+      <c r="C4" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DNA74-7,DNA74-20240126,DNA_20 standard,standard,DNA_20 standard,1,,,,,,20,20,,,</v>
+      </c>
+      <c r="D4" s="28" t="str">
+        <f ca="1">Samples!Q4</f>
+        <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
+      </c>
+      <c r="E4" s="28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
+      </c>
+      <c r="F4" s="28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DNA74-3,DNA74-20240126,B5-4,sample,EXP59A-B5,2,8,500,20,0,1,20,,,,</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="28" t="str">
+        <f ca="1">Samples!Q9</f>
+        <v>DNA74-8,DNA74-20240126,DNA_16 standard,standard,DNA_16 standard,1,,,,,,20,16,,,</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DNA74-8,DNA74-20240126,DNA_16 standard,standard,DNA_16 standard,1,,,,,,20,16,,,</v>
+      </c>
+      <c r="D5" s="28" t="str">
+        <f ca="1">Samples!Q5</f>
+        <v>DNA74-4,DNA74-20240126,B6-4,sample,EXP59A-B6,4,8,500,20,0,1,20,,,,</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DNA74-4,DNA74-20240126,B6-4,sample,EXP59A-B6,4,8,500,20,0,1,20,,,,</v>
+      </c>
+      <c r="F5" s="28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DNA74-4,DNA74-20240126,B6-4,sample,EXP59A-B6,4,8,500,20,0,1,20,,,,</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="28" t="str">
+        <f ca="1">Samples!Q10</f>
+        <v>DNA74-9,DNA74-20240126,DNA_12 standard,standard,DNA_12 standard,1,,,,,,20,12,,,</v>
+      </c>
+      <c r="C6" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DNA74-9,DNA74-20240126,DNA_12 standard,standard,DNA_12 standard,1,,,,,,20,12,,,</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="28" t="str">
+        <f ca="1">Samples!Q11</f>
+        <v>DNA74-10,DNA74-20240126,DNA_8 standard,standard,DNA_8 standard,1,,,,,,20,8,,,</v>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DNA74-10,DNA74-20240126,DNA_8 standard,standard,DNA_8 standard,1,,,,,,20,8,,,</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="28" t="str">
+        <f ca="1">Samples!Q12</f>
+        <v>DNA74-11,DNA74-20240126,DNA_4 standard,standard,DNA_4 standard,1,,,,,,20,4,,,</v>
+      </c>
+      <c r="C8" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DNA74-11,DNA74-20240126,DNA_4 standard,standard,DNA_4 standard,1,,,,,,20,4,,,</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="28" t="str">
+        <f ca="1">Samples!Q13</f>
+        <v>DNA74-12,DNA74-20240126,DNA_0 standard,standard,DNA_0 standard,1,,,,,,20,0,,,</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DNA74-12,DNA74-20240126,DNA_0 standard,standard,DNA_0 standard,1,,,,,,20,0,,,</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="9.44"/>
+    <col min="1" max="1" width="17.296875" customWidth="1"/>
+    <col min="2" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="25"/>
       <c r="B1" s="25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="25">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="25">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="25">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I1" s="25">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J1" s="25">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="25">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L1" s="25">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="M1" s="25">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="2" ht="44.25" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
@@ -4986,7 +5213,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" ht="44.25" customHeight="1">
+    <row r="3" spans="1:13" ht="57" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
@@ -5003,7 +5230,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" ht="44.25" customHeight="1">
+    <row r="4" spans="1:13" ht="57" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>39</v>
       </c>
@@ -5020,7 +5247,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" ht="44.25" customHeight="1">
+    <row r="5" spans="1:13" ht="57" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>40</v>
       </c>
@@ -5037,7 +5264,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" ht="44.25" customHeight="1">
+    <row r="6" spans="1:13" ht="57" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>41</v>
       </c>
@@ -5054,7 +5281,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" ht="44.25" customHeight="1">
+    <row r="7" spans="1:13" ht="57" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>42</v>
       </c>
@@ -5071,7 +5298,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" ht="44.25" customHeight="1">
+    <row r="8" spans="1:13" ht="57" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>43</v>
       </c>
@@ -5088,7 +5315,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" ht="44.25" customHeight="1">
+    <row r="9" spans="1:13" ht="57" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
@@ -5106,67 +5333,63 @@
       <c r="M9" s="28"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.33"/>
-    <col customWidth="1" min="2" max="13" width="9.0"/>
+    <col min="1" max="12" width="10.59765625" customWidth="1"/>
+    <col min="13" max="13" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="48.75" customHeight="1">
       <c r="A1" s="25"/>
       <c r="B1" s="25">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="25">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="25">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="25">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H1" s="25">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I1" s="25">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J1" s="25">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="25">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L1" s="25">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="M1" s="25">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="2" ht="57.0" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48.75" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
@@ -5183,7 +5406,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" ht="57.0" customHeight="1">
+    <row r="3" spans="1:13" ht="48.75" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
@@ -5200,7 +5423,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" ht="57.0" customHeight="1">
+    <row r="4" spans="1:13" ht="48.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>39</v>
       </c>
@@ -5217,7 +5440,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" ht="57.0" customHeight="1">
+    <row r="5" spans="1:13" ht="48.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>40</v>
       </c>
@@ -5234,7 +5457,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" ht="57.0" customHeight="1">
+    <row r="6" spans="1:13" ht="48.75" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>41</v>
       </c>
@@ -5251,7 +5474,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" ht="57.0" customHeight="1">
+    <row r="7" spans="1:13" ht="48.75" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>42</v>
       </c>
@@ -5268,7 +5491,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" ht="57.0" customHeight="1">
+    <row r="8" spans="1:13" ht="48.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>43</v>
       </c>
@@ -5285,7 +5508,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" ht="57.0" customHeight="1">
+    <row r="9" spans="1:13" ht="48.75" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
@@ -5303,225 +5526,27 @@
       <c r="M9" s="28"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="12" width="10.56"/>
-    <col customWidth="1" min="13" max="13" width="16.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="48.75" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="C1" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="D1" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="E1" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="F1" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="G1" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="H1" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="I1" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="J1" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="K1" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="L1" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="M1" s="25">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="2" ht="48.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" ht="48.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" ht="48.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-    </row>
-    <row r="5" ht="48.75" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-    </row>
-    <row r="6" ht="48.75" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-    </row>
-    <row r="7" ht="48.75" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-    </row>
-    <row r="8" ht="48.75" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" ht="48.75" customHeight="1">
-      <c r="A9" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-    </row>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.11"/>
-    <col customWidth="1" min="2" max="2" width="18.22"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5535,12 +5560,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>